--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/WASHINGTON_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/WASHINGTON_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1247"/>
+  <dimension ref="A1:D1241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C9">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C31">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C34">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C42">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C62">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C63">
@@ -1556,7 +1556,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C90">
@@ -1582,7 +1582,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C92">
@@ -1795,7 +1795,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C108">
@@ -1969,7 +1969,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C121">
@@ -1995,7 +1995,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2052,7 +2052,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C127">
@@ -2369,7 +2369,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C151">
@@ -2382,7 +2382,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C152">
@@ -2460,7 +2460,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C158">
@@ -2551,12 +2551,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C165">
@@ -2582,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C167">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C168">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C171">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C177">
@@ -2803,7 +2803,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C184">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C188">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C189">
@@ -2972,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C197">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C201">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C202">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C211">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C218">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C222">
@@ -3310,7 +3310,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C223">
@@ -3323,7 +3323,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C224">
@@ -3445,7 +3445,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C233">
@@ -3458,7 +3458,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C234">
@@ -3549,7 +3549,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C241">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C254">
@@ -3744,7 +3744,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C256">
@@ -3770,7 +3770,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C258">
@@ -3796,7 +3796,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C260">
@@ -3848,7 +3848,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C264">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C269">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C272">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C273">
@@ -4009,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C276">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C278">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C279">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C282">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C283">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C284">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C285">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C290">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C291">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C293">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C294">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C300">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C301">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C303">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C304">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C306">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C308">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C320">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C322">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C324">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C326">
@@ -4711,7 +4711,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C330">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C331">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C342">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C346">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C352">
@@ -5015,7 +5015,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C353">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C360">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C362">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C363">
@@ -5223,7 +5223,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C369">
@@ -5262,7 +5262,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C372">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C374">
@@ -5301,7 +5301,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C375">
@@ -5327,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C377">
@@ -5379,7 +5379,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C381">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C382">
@@ -5418,7 +5418,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C384">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C389">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C390">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C393">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C395">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C397">
@@ -5657,7 +5657,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C402">
@@ -5735,7 +5735,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C408">
@@ -5748,7 +5748,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C409">
@@ -5852,7 +5852,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C417">
@@ -5917,7 +5917,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C422">
@@ -5956,7 +5956,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C425">
@@ -6034,7 +6034,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C431">
@@ -6112,7 +6112,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C437">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C443">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C445">
@@ -6242,7 +6242,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C447">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C448">
@@ -6268,7 +6268,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C449">
@@ -6307,7 +6307,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C452">
@@ -6320,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C453">
@@ -6359,7 +6359,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C456">
@@ -6411,7 +6411,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C460">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C461">
@@ -6450,7 +6450,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C463">
@@ -6463,7 +6463,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C464">
@@ -6580,7 +6580,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C473">
@@ -6593,7 +6593,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C474">
@@ -6606,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C475">
@@ -6658,7 +6658,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C479">
@@ -6671,7 +6671,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C480">
@@ -6710,7 +6710,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C483">
@@ -6723,7 +6723,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C484">
@@ -6736,7 +6736,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C485">
@@ -7066,7 +7066,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C510">
@@ -7079,7 +7079,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C511">
@@ -7911,7 +7911,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C575">
@@ -8241,7 +8241,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C600">
@@ -8345,7 +8345,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C608">
@@ -8397,7 +8397,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C612">
@@ -8506,7 +8506,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C620">
@@ -8519,7 +8519,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C621">
@@ -8571,7 +8571,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C625">
@@ -8649,7 +8649,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C631">
@@ -8823,7 +8823,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C644">
@@ -8867,7 +8867,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C647">
@@ -8958,7 +8958,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C654">
@@ -8997,7 +8997,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C657">
@@ -9023,7 +9023,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C659">
@@ -9062,7 +9062,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C662">
@@ -9075,7 +9075,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C663">
@@ -9088,7 +9088,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C664">
@@ -9101,7 +9101,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C665">
@@ -9114,7 +9114,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C666">
@@ -9127,7 +9127,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C667">
@@ -9153,7 +9153,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C669">
@@ -9166,7 +9166,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C670">
@@ -9205,7 +9205,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C673">
@@ -9244,7 +9244,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C676">
@@ -9257,7 +9257,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C677">
@@ -9270,7 +9270,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C678">
@@ -9283,7 +9283,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C679">
@@ -9309,7 +9309,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C681">
@@ -9504,7 +9504,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C696">
@@ -9725,7 +9725,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C713">
@@ -10063,7 +10063,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C739">
@@ -10154,7 +10154,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C746">
@@ -10310,7 +10310,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C758">
@@ -10531,7 +10531,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C775">
@@ -10583,7 +10583,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C779">
@@ -10635,7 +10635,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C783">
@@ -10778,7 +10778,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C794">
@@ -11194,7 +11194,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C826">
@@ -11350,7 +11350,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C838">
@@ -11363,7 +11363,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C839">
@@ -11376,7 +11376,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C840">
@@ -11389,7 +11389,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C841">
@@ -11402,7 +11402,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C842">
@@ -11415,7 +11415,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C843">
@@ -11428,7 +11428,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C844">
@@ -11441,7 +11441,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C845">
@@ -11467,7 +11467,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C847">
@@ -11480,7 +11480,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C848">
@@ -11493,7 +11493,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C849">
@@ -11506,7 +11506,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C850">
@@ -11519,7 +11519,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C851">
@@ -11545,7 +11545,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C853">
@@ -11558,7 +11558,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C854">
@@ -11571,7 +11571,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C855">
@@ -11597,7 +11597,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C857">
@@ -11623,7 +11623,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C859">
@@ -11771,7 +11771,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C870">
@@ -11966,7 +11966,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C885">
@@ -12135,7 +12135,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C898">
@@ -12148,7 +12148,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C899">
@@ -12187,7 +12187,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C902">
@@ -12226,7 +12226,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C905">
@@ -12304,7 +12304,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C911">
@@ -12356,7 +12356,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C915">
@@ -12551,7 +12551,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C930">
@@ -12564,7 +12564,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C931">
@@ -12642,7 +12642,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C937">
@@ -12707,7 +12707,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C942">
@@ -12759,7 +12759,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C946">
@@ -12772,7 +12772,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C947">
@@ -12785,7 +12785,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C948">
@@ -12824,7 +12824,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C951">
@@ -13102,7 +13102,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C972">
@@ -13128,7 +13128,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C974">
@@ -13206,7 +13206,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C980">
@@ -13232,7 +13232,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C982">
@@ -13258,7 +13258,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C984">
@@ -13476,7 +13476,7 @@
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1000">
@@ -13567,7 +13567,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1007">
@@ -13580,7 +13580,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1008">
@@ -14463,7 +14463,7 @@
     <row r="1074">
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1074">
@@ -14489,7 +14489,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1076">
@@ -14502,7 +14502,7 @@
     <row r="1077">
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1077">
@@ -14541,7 +14541,7 @@
     <row r="1080">
       <c r="B1080" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1080">
@@ -14567,7 +14567,7 @@
     <row r="1082">
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1082">
@@ -14593,7 +14593,7 @@
     <row r="1084">
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1084">
@@ -14754,7 +14754,7 @@
     <row r="1096">
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1096">
@@ -14793,7 +14793,7 @@
     <row r="1099">
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1099">
@@ -14845,7 +14845,7 @@
     <row r="1103">
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1103">
@@ -14949,7 +14949,7 @@
     <row r="1111">
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1111">
@@ -14962,7 +14962,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1112">
@@ -15092,7 +15092,7 @@
     <row r="1122">
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1122">
@@ -15131,7 +15131,7 @@
     <row r="1125">
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1125">
@@ -15248,7 +15248,7 @@
     <row r="1134">
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1134">
@@ -15287,7 +15287,7 @@
     <row r="1137">
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1137">
@@ -15417,7 +15417,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1147">
@@ -15430,7 +15430,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1148">
@@ -15469,7 +15469,7 @@
     <row r="1151">
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1151">
@@ -15560,7 +15560,7 @@
     <row r="1158">
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1158">
@@ -15586,7 +15586,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1160">
@@ -15820,7 +15820,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1178">
@@ -16220,7 +16220,7 @@
     <row r="1208">
       <c r="B1208" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1208">
@@ -16311,7 +16311,7 @@
     <row r="1215">
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1215">
@@ -16363,7 +16363,7 @@
     <row r="1219">
       <c r="B1219" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1219">
@@ -16389,7 +16389,7 @@
     <row r="1221">
       <c r="B1221" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1221">
@@ -16402,7 +16402,7 @@
     <row r="1222">
       <c r="B1222" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1222">
@@ -16493,7 +16493,7 @@
     <row r="1229">
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1229">
@@ -16506,7 +16506,7 @@
     <row r="1230">
       <c r="B1230" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1230">
@@ -16532,7 +16532,7 @@
     <row r="1232">
       <c r="B1232" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1232">
@@ -16558,7 +16558,7 @@
     <row r="1234">
       <c r="B1234" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1234">
@@ -16657,41 +16657,6 @@
       </c>
       <c r="D1241">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="1244">
-      <c r="A1244" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
